--- a/Organizacional/05. Calidad/PTL-AuditoriaOrganizacional-aammdd.xlsx
+++ b/Organizacional/05. Calidad/PTL-AuditoriaOrganizacional-aammdd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7065" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
   <si>
     <t>Checklist de Auditorías</t>
   </si>
@@ -149,6 +149,12 @@
     <t>Las auditorias realizadas ¿Se encuentran en la columna correcta?</t>
   </si>
   <si>
+    <t>¿Se estan realizando las auditorias de acuerdo a lo planeado?</t>
+  </si>
+  <si>
+    <t>¿Se tiene identificado a los documentos que son parte de la linea base?</t>
+  </si>
+  <si>
     <t>¿Se tiene identificado los ítem de configuración?</t>
   </si>
   <si>
@@ -161,6 +167,12 @@
     <t>¿Se tienen definido una nomenclatura para cada documento?</t>
   </si>
   <si>
+    <t>¿Se tiene identificadas las lineas base del proyecto?</t>
+  </si>
+  <si>
+    <t>¿Se tiene identificado el momento de  la creación de linea base?</t>
+  </si>
+  <si>
     <t>¿Se tiene identificada la ubicación para cada herramienta?</t>
   </si>
   <si>
@@ -191,31 +203,61 @@
     <t>¿Se tienen definidos mecanismos de almacenamiento?</t>
   </si>
   <si>
+    <t>¿Se tiene definido una periodicidad de recolección para cada metrica?</t>
+  </si>
+  <si>
+    <t>¿Se tiene identificado un responsable de recolección para cada metrica?</t>
+  </si>
+  <si>
+    <t>¿Se tiene denido el mecanismo de analisis para todas las metricas?</t>
+  </si>
+  <si>
     <t>¿Todas las métricas tienen guías de análisis?</t>
   </si>
   <si>
-    <t>¿Se están realizando las auditorias de acuerdo a lo planeado?</t>
-  </si>
-  <si>
-    <t>¿Se tiene identificadas las líneas base del proyecto?</t>
-  </si>
-  <si>
-    <t>¿Se tiene identificado a los documentos que son parte de la línea base?</t>
-  </si>
-  <si>
-    <t>¿Se tiene identificado el momento de  la creación de línea base?</t>
+    <t>Medición y Monitoreo</t>
+  </si>
+  <si>
+    <t>¿Se establecieron los objetivos?</t>
+  </si>
+  <si>
+    <t>¿Se establecieron las métricas?</t>
+  </si>
+  <si>
+    <t>¿Se recolectaron las métricas?</t>
+  </si>
+  <si>
+    <t>¿Se generó el reporte de monitoreo?</t>
+  </si>
+  <si>
+    <t>¿Se presentó el reporte de monitoreo?</t>
+  </si>
+  <si>
+    <t>Reporte de Monitoreo</t>
+  </si>
+  <si>
+    <t>¿Se definieron las etapas del proyecto?</t>
+  </si>
+  <si>
+    <t>¿Se reporto el avance del proyecto?</t>
+  </si>
+  <si>
+    <t>¿Se revisaron los hitos?</t>
+  </si>
+  <si>
+    <t>¿Se revisaron los costos planeados y reales del proyecto?</t>
+  </si>
+  <si>
+    <t>¿Se reportó el esfuerzo planeado y real de cada etapa?</t>
+  </si>
+  <si>
+    <t>¿Se revisaron los resultados de las auditorias?</t>
+  </si>
+  <si>
+    <t>¿Se analizaron los riesgos?</t>
   </si>
   <si>
     <t>Plan de Métricas</t>
-  </si>
-  <si>
-    <t>¿Se tiene definido una periodicidad de recolección para cada métrica?</t>
-  </si>
-  <si>
-    <t>¿Se tiene identificado un responsable de recolección para cada métrica?</t>
-  </si>
-  <si>
-    <t>¿Se tiene definido el mecanismo de análisis para todas las métricas?</t>
   </si>
 </sst>
 </file>
@@ -325,7 +367,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -485,13 +527,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -506,9 +600,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -547,12 +638,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -603,6 +688,24 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -620,6 +723,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -715,22 +821,28 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Resumen!$B$13</c:f>
+              <c:f>Resumen!$B$13:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Calidad</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Medición y Monitoreo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Resumen!$D$13</c:f>
+              <c:f>Resumen!$D$13:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -742,14 +854,13 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="65303296"/>
-        <c:axId val="65304832"/>
+        <c:axId val="80728832"/>
+        <c:axId val="80730368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="65303296"/>
+        <c:axId val="80728832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -790,14 +901,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65304832"/>
+        <c:crossAx val="80730368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65304832"/>
+        <c:axId val="80730368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -847,7 +958,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65303296"/>
+        <c:crossAx val="80728832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -889,7 +1000,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -958,9 +1069,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Resumen!$B$17:$B$20</c:f>
+              <c:f>Resumen!$B$18:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Plan de Calidad</c:v>
                 </c:pt>
@@ -973,15 +1084,18 @@
                 <c:pt idx="3">
                   <c:v>Plan de Métricas</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>Reporte de Monitoreo</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Resumen!$D$17:$D$20</c:f>
+              <c:f>Resumen!$D$18:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -994,6 +1108,9 @@
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1003,14 +1120,13 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="107100416"/>
-        <c:axId val="65011712"/>
+        <c:axId val="80759040"/>
+        <c:axId val="80781312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="107100416"/>
+        <c:axId val="80759040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1051,14 +1167,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65011712"/>
+        <c:crossAx val="80781312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65011712"/>
+        <c:axId val="80781312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1108,7 +1224,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107100416"/>
+        <c:crossAx val="80759040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1150,7 +1266,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1168,7 +1284,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1192,13 +1308,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1600,7 +1716,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1608,10 +1724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -1630,65 +1746,65 @@
     <row r="1" spans="1:6" ht="67.5" customHeight="1"/>
     <row r="2" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="3" spans="1:6" ht="21" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
     </row>
     <row r="5" spans="1:6" ht="15.75">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="46"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="49"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="46"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="49"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="46"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="10" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="11" spans="1:6" ht="16.5" customHeight="1">
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1">
       <c r="B12" s="5" t="s">
@@ -1702,99 +1818,127 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" customHeight="1">
-      <c r="B13" s="6" t="str">
+      <c r="B13" s="42" t="str">
         <f>Procesos!B5</f>
         <v>Calidad</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <f>COUNTA(Procesos!D6:D11)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="8" t="e">
+      <c r="D13" s="41" t="e">
         <f>COUNTIF((Procesos!D6:D11),"x")/(COUNTIF((Procesos!D6:D11),"x")+COUNTIF((Procesos!E6:E11),"x"))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="15" spans="1:6" ht="16.5" customHeight="1">
-      <c r="B15" s="41" t="s">
+    <row r="14" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B14" s="42" t="str">
+        <f>Procesos!B13</f>
+        <v>Medición y Monitoreo</v>
+      </c>
+      <c r="C14" s="6">
+        <f>COUNTA(Procesos!D14:D18)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="41" t="e">
+        <f>COUNTIF((Procesos!D14:D18),"x")/(COUNTIF((Procesos!D14:D18),"x")+COUNTIF((Procesos!E14:E18),"x"))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="16" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B16" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" customHeight="1">
-      <c r="B16" s="9" t="s">
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+    </row>
+    <row r="17" spans="2:4" ht="16.5" customHeight="1">
+      <c r="B17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="16.5" customHeight="1">
-      <c r="B17" s="6" t="str">
+    <row r="18" spans="2:4" ht="16.5" customHeight="1">
+      <c r="B18" s="42" t="str">
         <f>Productos!B5</f>
         <v>Plan de Calidad</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C18" s="6">
         <f>COUNTA(Productos!D6:D13)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="8" t="e">
+      <c r="D18" s="7" t="e">
         <f>COUNTIF((Productos!D6:D13),"x")/(COUNTIF((Productos!D6:D13),"x")+COUNTIF((Productos!E6:E13),"x"))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="16.5" customHeight="1">
-      <c r="B18" s="6" t="str">
+    <row r="19" spans="2:4" ht="16.5" customHeight="1">
+      <c r="B19" s="43" t="str">
         <f>Productos!B15</f>
         <v>Cronograma</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C19" s="38">
         <f>COUNTA(Productos!D16:D21)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="8" t="e">
+      <c r="D19" s="39" t="e">
         <f>COUNTIF((Productos!D16:D21),"x")/(COUNTIF((Productos!D16:D21),"x")+COUNTIF((Productos!E16:E21),"x"))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="16.5" customHeight="1">
-      <c r="B19" s="6" t="str">
+    <row r="20" spans="2:4" ht="16.5" customHeight="1">
+      <c r="B20" s="42" t="str">
         <f>Productos!B23</f>
         <v>Plan de Configuración</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C20" s="6">
         <f>COUNTA(Productos!D24:D32)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="8" t="e">
+      <c r="D20" s="40" t="e">
         <f>COUNTIF((Productos!D24:D32),"x")/(COUNTIF((Productos!D24:D32),"x")+COUNTIF((Productos!E24:E32),"x"))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="16.5" customHeight="1">
-      <c r="B20" s="6" t="str">
+    <row r="21" spans="2:4" ht="16.5" customHeight="1">
+      <c r="B21" s="42" t="str">
         <f>Productos!B34</f>
         <v>Plan de Métricas</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C21" s="6">
         <f>COUNTA(Productos!D35:D46)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="8" t="e">
+      <c r="D21" s="40" t="e">
         <f>COUNTIF((Productos!D35:D46),"x")/(COUNTIF((Productos!D35:D46),"x")+COUNTIF((Productos!E35:E46),"x"))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="2:4" s="3" customFormat="1"/>
+    <row r="22" spans="2:4" ht="16.5" customHeight="1">
+      <c r="B22" s="42" t="str">
+        <f>Productos!B48</f>
+        <v>Reporte de Monitoreo</v>
+      </c>
+      <c r="C22" s="6">
+        <f>COUNTA(Productos!D49:D55)</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="41" t="e">
+        <f>COUNTIF((Productos!D49:D55),"x")/(COUNTIF((Productos!D49:D55),"x")+COUNTIF((Productos!E49:E55),"x"))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" s="3" customFormat="1"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="C6:F6"/>
@@ -1810,10 +1954,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G13"/>
+  <dimension ref="B1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -1828,135 +1972,208 @@
   <sheetData>
     <row r="1" spans="2:7" ht="67.5" customHeight="1"/>
     <row r="2" spans="2:7">
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="10"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="2:7" ht="21" customHeight="1">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47" t="s">
+      <c r="C3" s="51"/>
+      <c r="D3" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47" t="s">
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="21" customHeight="1">
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="40" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="47"/>
-    </row>
-    <row r="5" spans="2:7" s="13" customFormat="1" ht="18" customHeight="1">
-      <c r="B5" s="49" t="s">
+      <c r="G4" s="51"/>
+    </row>
+    <row r="5" spans="2:7" s="12" customFormat="1" ht="18" customHeight="1">
+      <c r="B5" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-    </row>
-    <row r="6" spans="2:7" s="18" customFormat="1" ht="16.5">
-      <c r="B6" s="14">
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+    </row>
+    <row r="6" spans="2:7" s="17" customFormat="1" ht="16.5">
+      <c r="B6" s="13">
         <v>1</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="2:7" s="18" customFormat="1" ht="16.5">
-      <c r="B7" s="14">
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="2:7" s="17" customFormat="1" ht="16.5">
+      <c r="B7" s="13">
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" spans="2:7" s="18" customFormat="1" ht="16.5">
-      <c r="B8" s="14">
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="2:7" s="17" customFormat="1" ht="16.5">
+      <c r="B8" s="13">
         <f t="shared" ref="B8:B11" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="2:7" s="18" customFormat="1" ht="16.5">
-      <c r="B9" s="14">
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="2:7" s="17" customFormat="1" ht="16.5">
+      <c r="B9" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="2:7" s="18" customFormat="1" ht="16.5">
-      <c r="B10" s="14">
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="2:7" s="17" customFormat="1" ht="16.5">
+      <c r="B10" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="2:7" s="18" customFormat="1" ht="33">
-      <c r="B11" s="14">
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="2:7" s="17" customFormat="1" ht="33">
+      <c r="B11" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="2:7" s="18" customFormat="1" ht="16.5"/>
-    <row r="13" spans="2:7" s="18" customFormat="1" ht="16.5">
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="2:7" s="17" customFormat="1" ht="16.5"/>
+    <row r="13" spans="2:7" s="17" customFormat="1" ht="16.5">
+      <c r="B13" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+    </row>
+    <row r="14" spans="2:7" ht="16.5">
+      <c r="B14" s="13">
+        <v>1</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="2:7" ht="16.5">
+      <c r="B15" s="13">
+        <f>B14+1</f>
+        <v>2</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="2:7" ht="16.5">
+      <c r="B16" s="13">
+        <f t="shared" ref="B16:B18" si="1">B15+1</f>
+        <v>3</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="2:7" ht="16.5">
+      <c r="B17" s="13">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="2:7" ht="16.5">
+      <c r="B18" s="13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:G4"/>
@@ -1972,16 +2189,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63.140625" style="1" customWidth="1"/>
     <col min="4" max="6" width="11.42578125" style="1"/>
     <col min="7" max="7" width="27.85546875" style="1" customWidth="1"/>
@@ -1990,621 +2207,724 @@
   <sheetData>
     <row r="1" spans="1:7" ht="67.5" customHeight="1"/>
     <row r="2" spans="1:7">
-      <c r="A2" s="10"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" s="28" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A3" s="27"/>
-      <c r="B3" s="47" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" s="25" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A3" s="24"/>
+      <c r="B3" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47" t="s">
+      <c r="C3" s="51"/>
+      <c r="D3" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47" t="s">
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="28" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A4" s="27"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="40" t="s">
+    <row r="4" spans="1:7" s="25" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A4" s="24"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="47"/>
-    </row>
-    <row r="5" spans="1:7" s="23" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A5" s="22"/>
-      <c r="B5" s="49" t="s">
+      <c r="G4" s="51"/>
+    </row>
+    <row r="5" spans="1:7" s="20" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A5" s="19"/>
+      <c r="B5" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-    </row>
-    <row r="6" spans="1:7" s="26" customFormat="1" ht="16.5">
-      <c r="A6" s="25"/>
-      <c r="B6" s="36">
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+    </row>
+    <row r="6" spans="1:7" s="23" customFormat="1" ht="16.5">
+      <c r="A6" s="22"/>
+      <c r="B6" s="33">
         <v>1</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="32"/>
-    </row>
-    <row r="7" spans="1:7" s="26" customFormat="1" ht="16.5">
-      <c r="A7" s="25"/>
-      <c r="B7" s="37">
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29"/>
+    </row>
+    <row r="7" spans="1:7" s="23" customFormat="1" ht="16.5">
+      <c r="A7" s="22"/>
+      <c r="B7" s="34">
         <f>+B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
-    </row>
-    <row r="8" spans="1:7" s="26" customFormat="1" ht="16.5">
-      <c r="A8" s="25"/>
-      <c r="B8" s="37">
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
+    </row>
+    <row r="8" spans="1:7" s="23" customFormat="1" ht="16.5">
+      <c r="A8" s="22"/>
+      <c r="B8" s="34">
         <f t="shared" ref="B8:B13" si="0">+B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
-    </row>
-    <row r="9" spans="1:7" s="26" customFormat="1" ht="16.5">
-      <c r="A9" s="25"/>
-      <c r="B9" s="37">
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
+    </row>
+    <row r="9" spans="1:7" s="23" customFormat="1" ht="16.5">
+      <c r="A9" s="22"/>
+      <c r="B9" s="34">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
-    </row>
-    <row r="10" spans="1:7" s="26" customFormat="1" ht="16.5">
-      <c r="A10" s="25"/>
-      <c r="B10" s="37">
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
+    </row>
+    <row r="10" spans="1:7" s="23" customFormat="1" ht="16.5">
+      <c r="A10" s="22"/>
+      <c r="B10" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
-    </row>
-    <row r="11" spans="1:7" s="26" customFormat="1" ht="16.5">
-      <c r="A11" s="25"/>
-      <c r="B11" s="37">
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
+    </row>
+    <row r="11" spans="1:7" s="23" customFormat="1" ht="16.5">
+      <c r="A11" s="22"/>
+      <c r="B11" s="34">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32"/>
-    </row>
-    <row r="12" spans="1:7" s="26" customFormat="1" ht="16.5">
-      <c r="A12" s="25"/>
-      <c r="B12" s="37">
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
+    </row>
+    <row r="12" spans="1:7" s="23" customFormat="1" ht="16.5">
+      <c r="A12" s="22"/>
+      <c r="B12" s="34">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32"/>
-    </row>
-    <row r="13" spans="1:7" s="26" customFormat="1" ht="33">
-      <c r="A13" s="25"/>
-      <c r="B13" s="37">
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29"/>
+    </row>
+    <row r="13" spans="1:7" s="23" customFormat="1" ht="33">
+      <c r="A13" s="22"/>
+      <c r="B13" s="34">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="32"/>
-    </row>
-    <row r="14" spans="1:7" s="26" customFormat="1" ht="16.5">
-      <c r="A14" s="25"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-    </row>
-    <row r="15" spans="1:7" s="35" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A15" s="34"/>
-      <c r="B15" s="49" t="s">
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
+    </row>
+    <row r="14" spans="1:7" s="23" customFormat="1" ht="16.5">
+      <c r="A14" s="22"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+    </row>
+    <row r="15" spans="1:7" s="32" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A15" s="31"/>
+      <c r="B15" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-    </row>
-    <row r="16" spans="1:7" s="26" customFormat="1" ht="16.5">
-      <c r="A16" s="25"/>
-      <c r="B16" s="37">
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+    </row>
+    <row r="16" spans="1:7" s="23" customFormat="1" ht="16.5">
+      <c r="A16" s="22"/>
+      <c r="B16" s="34">
         <v>1</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32"/>
-    </row>
-    <row r="17" spans="1:7" s="26" customFormat="1" ht="16.5">
-      <c r="A17" s="25"/>
-      <c r="B17" s="37">
+      <c r="D16" s="27"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
+    </row>
+    <row r="17" spans="1:7" s="23" customFormat="1" ht="16.5">
+      <c r="A17" s="22"/>
+      <c r="B17" s="34">
         <f>B16+1</f>
         <v>2</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="32"/>
-    </row>
-    <row r="18" spans="1:7" s="26" customFormat="1" ht="16.5">
-      <c r="A18" s="25"/>
-      <c r="B18" s="37">
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+    </row>
+    <row r="18" spans="1:7" s="23" customFormat="1" ht="16.5">
+      <c r="A18" s="22"/>
+      <c r="B18" s="34">
         <f t="shared" ref="B18:B21" si="1">B17+1</f>
         <v>3</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="32"/>
-    </row>
-    <row r="19" spans="1:7" s="26" customFormat="1" ht="16.5">
-      <c r="A19" s="25"/>
-      <c r="B19" s="37">
+      <c r="D18" s="27"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
+    </row>
+    <row r="19" spans="1:7" s="23" customFormat="1" ht="16.5">
+      <c r="A19" s="22"/>
+      <c r="B19" s="34">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="32"/>
-    </row>
-    <row r="20" spans="1:7" s="26" customFormat="1" ht="16.5">
-      <c r="A20" s="25"/>
-      <c r="B20" s="37">
+      <c r="D19" s="27"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
+    </row>
+    <row r="20" spans="1:7" s="23" customFormat="1" ht="16.5">
+      <c r="A20" s="22"/>
+      <c r="B20" s="34">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="32"/>
-    </row>
-    <row r="21" spans="1:7" s="26" customFormat="1" ht="16.5">
-      <c r="A21" s="25"/>
-      <c r="B21" s="37">
+      <c r="D20" s="27"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
+    </row>
+    <row r="21" spans="1:7" s="23" customFormat="1" ht="16.5">
+      <c r="A21" s="22"/>
+      <c r="B21" s="34">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C21" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="32"/>
-    </row>
-    <row r="22" spans="1:7" s="26" customFormat="1" ht="16.5">
-      <c r="A22" s="25"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-    </row>
-    <row r="23" spans="1:7" s="35" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A23" s="34"/>
-      <c r="B23" s="49" t="s">
+      <c r="C21" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+    </row>
+    <row r="22" spans="1:7" s="23" customFormat="1" ht="16.5">
+      <c r="A22" s="22"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+    </row>
+    <row r="23" spans="1:7" s="32" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A23" s="31"/>
+      <c r="B23" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-    </row>
-    <row r="24" spans="1:7" s="26" customFormat="1" ht="16.5">
-      <c r="A24" s="25"/>
-      <c r="B24" s="37">
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+    </row>
+    <row r="24" spans="1:7" s="23" customFormat="1" ht="16.5">
+      <c r="A24" s="22"/>
+      <c r="B24" s="34">
         <v>1</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-    </row>
-    <row r="25" spans="1:7" s="26" customFormat="1" ht="16.5">
-      <c r="A25" s="25"/>
-      <c r="B25" s="37">
+      <c r="C24" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="16"/>
+    </row>
+    <row r="25" spans="1:7" s="23" customFormat="1" ht="16.5">
+      <c r="A25" s="22"/>
+      <c r="B25" s="34">
         <f>+B24+1</f>
         <v>2</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17"/>
-    </row>
-    <row r="26" spans="1:7" s="26" customFormat="1" ht="16.5">
-      <c r="A26" s="25"/>
-      <c r="B26" s="37">
+      <c r="C25" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" spans="1:7" s="23" customFormat="1" ht="16.5">
+      <c r="A26" s="22"/>
+      <c r="B26" s="34">
         <f t="shared" ref="B26:B32" si="2">+B25+1</f>
         <v>3</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
-    </row>
-    <row r="27" spans="1:7" s="26" customFormat="1" ht="16.5">
-      <c r="A27" s="25"/>
-      <c r="B27" s="37">
+      <c r="C26" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
+    </row>
+    <row r="27" spans="1:7" s="23" customFormat="1" ht="16.5">
+      <c r="A27" s="22"/>
+      <c r="B27" s="34">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="C27" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
-    </row>
-    <row r="28" spans="1:7" s="26" customFormat="1" ht="16.5">
-      <c r="A28" s="25"/>
-      <c r="B28" s="37">
+      <c r="C27" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" spans="1:7" s="23" customFormat="1" ht="16.5">
+      <c r="A28" s="22"/>
+      <c r="B28" s="34">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17"/>
-    </row>
-    <row r="29" spans="1:7" s="26" customFormat="1" ht="16.5">
-      <c r="A29" s="25"/>
-      <c r="B29" s="37">
+      <c r="C28" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="16"/>
+    </row>
+    <row r="29" spans="1:7" s="23" customFormat="1" ht="16.5">
+      <c r="A29" s="22"/>
+      <c r="B29" s="34">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="C29" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17"/>
-    </row>
-    <row r="30" spans="1:7" s="26" customFormat="1" ht="16.5">
-      <c r="A30" s="25"/>
-      <c r="B30" s="37">
+      <c r="C29" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="16"/>
+    </row>
+    <row r="30" spans="1:7" s="23" customFormat="1" ht="16.5">
+      <c r="A30" s="22"/>
+      <c r="B30" s="34">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="17"/>
-    </row>
-    <row r="31" spans="1:7" s="26" customFormat="1" ht="16.5">
-      <c r="A31" s="25"/>
-      <c r="B31" s="37">
+      <c r="C30" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="16"/>
+    </row>
+    <row r="31" spans="1:7" s="23" customFormat="1" ht="16.5">
+      <c r="A31" s="22"/>
+      <c r="B31" s="34">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="17"/>
-    </row>
-    <row r="32" spans="1:7" s="26" customFormat="1" ht="16.5">
-      <c r="A32" s="25"/>
-      <c r="B32" s="37">
+      <c r="C31" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="16"/>
+    </row>
+    <row r="32" spans="1:7" s="23" customFormat="1" ht="16.5">
+      <c r="A32" s="22"/>
+      <c r="B32" s="34">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="C32" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="17"/>
-    </row>
-    <row r="33" spans="1:7" s="26" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A33" s="25"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-    </row>
-    <row r="34" spans="1:7" s="35" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A34" s="34"/>
-      <c r="B34" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-    </row>
-    <row r="35" spans="1:7" s="26" customFormat="1" ht="16.5">
-      <c r="A35" s="25"/>
-      <c r="B35" s="37">
+      <c r="C32" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="16"/>
+    </row>
+    <row r="33" spans="1:7" s="23" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A33" s="22"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+    </row>
+    <row r="34" spans="1:7" s="32" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A34" s="31"/>
+      <c r="B34" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+    </row>
+    <row r="35" spans="1:7" s="23" customFormat="1" ht="16.5">
+      <c r="A35" s="22"/>
+      <c r="B35" s="34">
         <v>1</v>
       </c>
-      <c r="C35" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="17"/>
-    </row>
-    <row r="36" spans="1:7" s="26" customFormat="1" ht="16.5">
-      <c r="A36" s="25"/>
-      <c r="B36" s="37">
+      <c r="C35" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="16"/>
+    </row>
+    <row r="36" spans="1:7" s="23" customFormat="1" ht="16.5">
+      <c r="A36" s="22"/>
+      <c r="B36" s="34">
         <f>+B35+1</f>
         <v>2</v>
       </c>
-      <c r="C36" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="17"/>
-    </row>
-    <row r="37" spans="1:7" s="26" customFormat="1" ht="16.5">
-      <c r="A37" s="25"/>
-      <c r="B37" s="37">
+      <c r="C36" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="16"/>
+    </row>
+    <row r="37" spans="1:7" s="23" customFormat="1" ht="16.5">
+      <c r="A37" s="22"/>
+      <c r="B37" s="34">
         <f>+B36+1</f>
         <v>3</v>
       </c>
-      <c r="C37" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="17"/>
-    </row>
-    <row r="38" spans="1:7" s="26" customFormat="1" ht="16.5">
-      <c r="A38" s="25"/>
-      <c r="B38" s="37">
+      <c r="C37" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="16"/>
+    </row>
+    <row r="38" spans="1:7" s="23" customFormat="1" ht="16.5">
+      <c r="A38" s="22"/>
+      <c r="B38" s="34">
         <f>+B37+1</f>
         <v>4</v>
       </c>
-      <c r="C38" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="17"/>
-    </row>
-    <row r="39" spans="1:7" s="26" customFormat="1" ht="16.5">
-      <c r="A39" s="25"/>
-      <c r="B39" s="37">
+      <c r="C38" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="16"/>
+    </row>
+    <row r="39" spans="1:7" s="23" customFormat="1" ht="16.5">
+      <c r="A39" s="22"/>
+      <c r="B39" s="34">
         <f t="shared" ref="B39:B46" si="3">+B38+1</f>
         <v>5</v>
       </c>
-      <c r="C39" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="17"/>
-    </row>
-    <row r="40" spans="1:7" s="26" customFormat="1" ht="16.5">
-      <c r="A40" s="25"/>
-      <c r="B40" s="37">
+      <c r="C39" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="16"/>
+    </row>
+    <row r="40" spans="1:7" s="23" customFormat="1" ht="16.5">
+      <c r="A40" s="22"/>
+      <c r="B40" s="34">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="C40" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="17"/>
-    </row>
-    <row r="41" spans="1:7" s="26" customFormat="1" ht="16.5">
-      <c r="A41" s="25"/>
-      <c r="B41" s="37">
+      <c r="C40" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="16"/>
+    </row>
+    <row r="41" spans="1:7" s="23" customFormat="1" ht="16.5">
+      <c r="A41" s="22"/>
+      <c r="B41" s="34">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="C41" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="17"/>
-    </row>
-    <row r="42" spans="1:7" s="26" customFormat="1" ht="16.5">
-      <c r="A42" s="25"/>
-      <c r="B42" s="37">
+      <c r="C41" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="16"/>
+    </row>
+    <row r="42" spans="1:7" s="23" customFormat="1" ht="16.5">
+      <c r="A42" s="22"/>
+      <c r="B42" s="34">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="C42" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="17"/>
-    </row>
-    <row r="43" spans="1:7" s="26" customFormat="1" ht="16.5">
-      <c r="A43" s="25"/>
-      <c r="B43" s="37">
+      <c r="C42" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="16"/>
+    </row>
+    <row r="43" spans="1:7" s="23" customFormat="1" ht="16.5">
+      <c r="A43" s="22"/>
+      <c r="B43" s="34">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="C43" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="17"/>
-    </row>
-    <row r="44" spans="1:7" s="26" customFormat="1" ht="16.5">
-      <c r="A44" s="25"/>
-      <c r="B44" s="37">
+      <c r="C43" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="16"/>
+    </row>
+    <row r="44" spans="1:7" s="23" customFormat="1" ht="16.5">
+      <c r="A44" s="22"/>
+      <c r="B44" s="34">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="C44" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="17"/>
-    </row>
-    <row r="45" spans="1:7" s="26" customFormat="1" ht="16.5">
-      <c r="A45" s="25"/>
-      <c r="B45" s="37">
+      <c r="C44" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="16"/>
+    </row>
+    <row r="45" spans="1:7" s="23" customFormat="1" ht="16.5">
+      <c r="A45" s="22"/>
+      <c r="B45" s="34">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="C45" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="17"/>
-    </row>
-    <row r="46" spans="1:7" s="26" customFormat="1" ht="16.5">
-      <c r="A46" s="25"/>
-      <c r="B46" s="37">
+      <c r="C45" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="16"/>
+    </row>
+    <row r="46" spans="1:7" s="23" customFormat="1" ht="16.5">
+      <c r="A46" s="22"/>
+      <c r="B46" s="34">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="C46" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="17"/>
+      <c r="C46" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="16"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="C47" s="24"/>
+      <c r="C47" s="21"/>
+    </row>
+    <row r="48" spans="1:7" ht="15.75">
+      <c r="B48" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
+    </row>
+    <row r="49" spans="2:7" ht="16.5">
+      <c r="B49" s="34">
+        <v>1</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="16"/>
+    </row>
+    <row r="50" spans="2:7" ht="16.5">
+      <c r="B50" s="34">
+        <f>B49+1</f>
+        <v>2</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="16"/>
+    </row>
+    <row r="51" spans="2:7" ht="16.5">
+      <c r="B51" s="34">
+        <f t="shared" ref="B51:B55" si="4">B50+1</f>
+        <v>3</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="16"/>
+    </row>
+    <row r="52" spans="2:7" ht="16.5">
+      <c r="B52" s="34">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="16"/>
+    </row>
+    <row r="53" spans="2:7" ht="16.5">
+      <c r="B53" s="34">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="16"/>
+    </row>
+    <row r="54" spans="2:7" ht="16.5">
+      <c r="B54" s="34">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="16"/>
+    </row>
+    <row r="55" spans="2:7" ht="16.5">
+      <c r="B55" s="34">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
+  <mergeCells count="18">
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B3:C4"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
   </mergeCells>
   <conditionalFormatting sqref="C47">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
